--- a/lib/xlsx_reader/relatorio_operacao_completo_copy.xlsx
+++ b/lib/xlsx_reader/relatorio_operacao_completo_copy.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="relatorio_operacao_completo" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">relatorio_operacao_completo!$A$2:$S$100</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -477,7 +480,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -638,6 +641,14 @@
       <b/>
       <sz val="7.5"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1065,7 +1076,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1110,14 +1121,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1476,8 +1484,12 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1511,15 +1523,64 @@
       <c r="R1" s="12"/>
       <c r="S1" s="13"/>
     </row>
-    <row r="2" spans="1:19">
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="S2" s="14"/>
+    <row r="2" spans="1:19" ht="21">
+      <c r="A2" s="18">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18">
+        <v>2</v>
+      </c>
+      <c r="D2" s="18">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19">
+        <v>4</v>
+      </c>
+      <c r="F2" s="18">
+        <v>5</v>
+      </c>
+      <c r="G2" s="18">
+        <v>6</v>
+      </c>
+      <c r="H2" s="19">
+        <v>7</v>
+      </c>
+      <c r="I2" s="18">
+        <v>8</v>
+      </c>
+      <c r="J2" s="18">
+        <v>9</v>
+      </c>
+      <c r="K2" s="19">
+        <v>10</v>
+      </c>
+      <c r="L2" s="18">
+        <v>11</v>
+      </c>
+      <c r="M2" s="18">
+        <v>12</v>
+      </c>
+      <c r="N2" s="19">
+        <v>13</v>
+      </c>
+      <c r="O2" s="18">
+        <v>14</v>
+      </c>
+      <c r="P2" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>16</v>
+      </c>
+      <c r="R2" s="18">
+        <v>17</v>
+      </c>
+      <c r="S2" s="18">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:19">
       <c r="B3" s="2" t="s">
@@ -5443,10 +5504,11 @@
       <c r="S100" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <autoFilter ref="A2:S100"/>
+  <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>